--- a/utils/localisation_script/excel_to_json/ta/r.xlsx
+++ b/utils/localisation_script/excel_to_json/ta/r.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/umair.manzoor/Projects/Open-Speech-EkStep/crowdsource-dataplatform/utils/localisation_script/excel_to_json/ta/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sreejithv/TW/projects/ekStep/crowdsource-dataplatform/utils/localisation_script/excel_to_json/ta/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F73090E-B5BD-9743-91B3-C8EECB90E9BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2EF465B-20B7-9147-AFCC-2B29876F7AE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="20500" windowHeight="7760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="275">
   <si>
     <t>x</t>
   </si>
@@ -843,6 +843,9 @@
   <si>
     <t>English copy</t>
   </si>
+  <si>
+    <t xml:space="preserve">You are just &lt;x&gt; images away from earning your &lt;y&gt;  Bhasha Samarthak Badge. </t>
+  </si>
 </sst>
 </file>
 
@@ -964,7 +967,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1032,6 +1035,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1254,10 +1258,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AA988"/>
+  <dimension ref="A1:AA989"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="D72" sqref="D72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
@@ -2831,12 +2835,12 @@
       <c r="F45" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="G45" s="29" t="s">
+      <c r="G45" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="H45" s="30"/>
-      <c r="I45" s="30"/>
-      <c r="J45" s="30"/>
+      <c r="H45" s="31"/>
+      <c r="I45" s="31"/>
+      <c r="J45" s="31"/>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
       <c r="M45" s="1"/>
@@ -2975,12 +2979,12 @@
       <c r="F49" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="G49" s="29" t="s">
+      <c r="G49" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="H49" s="30"/>
-      <c r="I49" s="30"/>
-      <c r="J49" s="30"/>
+      <c r="H49" s="31"/>
+      <c r="I49" s="31"/>
+      <c r="J49" s="31"/>
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
       <c r="M49" s="1"/>
@@ -3119,12 +3123,12 @@
       <c r="F53" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="G53" s="29" t="s">
+      <c r="G53" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="H53" s="30"/>
-      <c r="I53" s="30"/>
-      <c r="J53" s="30"/>
+      <c r="H53" s="31"/>
+      <c r="I53" s="31"/>
+      <c r="J53" s="31"/>
       <c r="K53" s="1"/>
       <c r="L53" s="1"/>
       <c r="M53" s="1"/>
@@ -3263,12 +3267,12 @@
       <c r="F57" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="G57" s="29" t="s">
+      <c r="G57" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="H57" s="30"/>
-      <c r="I57" s="30"/>
-      <c r="J57" s="30"/>
+      <c r="H57" s="31"/>
+      <c r="I57" s="31"/>
+      <c r="J57" s="31"/>
       <c r="K57" s="1"/>
       <c r="L57" s="1"/>
       <c r="M57" s="1"/>
@@ -3477,12 +3481,12 @@
       <c r="F63" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="G63" s="29" t="s">
+      <c r="G63" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="H63" s="30"/>
-      <c r="I63" s="30"/>
-      <c r="J63" s="30"/>
+      <c r="H63" s="31"/>
+      <c r="I63" s="31"/>
+      <c r="J63" s="31"/>
       <c r="K63" s="1"/>
       <c r="L63" s="1"/>
       <c r="M63" s="1"/>
@@ -3516,12 +3520,12 @@
       <c r="F64" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="G64" s="29" t="s">
+      <c r="G64" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="H64" s="30"/>
-      <c r="I64" s="30"/>
-      <c r="J64" s="30"/>
+      <c r="H64" s="31"/>
+      <c r="I64" s="31"/>
+      <c r="J64" s="31"/>
       <c r="K64" s="1"/>
       <c r="L64" s="1"/>
       <c r="M64" s="1"/>
@@ -3555,12 +3559,12 @@
       <c r="F65" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="G65" s="29" t="s">
+      <c r="G65" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="H65" s="30"/>
-      <c r="I65" s="30"/>
-      <c r="J65" s="30"/>
+      <c r="H65" s="31"/>
+      <c r="I65" s="31"/>
+      <c r="J65" s="31"/>
       <c r="K65" s="1"/>
       <c r="L65" s="1"/>
       <c r="M65" s="1"/>
@@ -3594,12 +3598,12 @@
       <c r="F66" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="G66" s="29" t="s">
+      <c r="G66" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="H66" s="30"/>
-      <c r="I66" s="30"/>
-      <c r="J66" s="30"/>
+      <c r="H66" s="31"/>
+      <c r="I66" s="31"/>
+      <c r="J66" s="31"/>
       <c r="K66" s="1"/>
       <c r="L66" s="1"/>
       <c r="M66" s="1"/>
@@ -3723,27 +3727,21 @@
       <c r="Z69" s="1"/>
       <c r="AA69" s="1"/>
     </row>
-    <row r="70" spans="1:27" ht="48">
+    <row r="70" spans="1:27" s="29" customFormat="1" ht="48">
       <c r="A70" s="7"/>
-      <c r="B70" s="7">
-        <v>68</v>
-      </c>
+      <c r="B70" s="7"/>
       <c r="C70" s="8" t="s">
-        <v>77</v>
+        <v>274</v>
       </c>
       <c r="D70" s="9"/>
       <c r="E70" s="15" t="s">
         <v>222</v>
       </c>
-      <c r="F70" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="G70" s="29" t="s">
-        <v>48</v>
-      </c>
-      <c r="H70" s="30"/>
-      <c r="I70" s="30"/>
-      <c r="J70" s="30"/>
+      <c r="F70" s="9"/>
+      <c r="G70" s="9"/>
+      <c r="H70" s="9"/>
+      <c r="I70" s="9"/>
+      <c r="J70" s="9"/>
       <c r="K70" s="1"/>
       <c r="L70" s="1"/>
       <c r="M70" s="1"/>
@@ -3765,24 +3763,24 @@
     <row r="71" spans="1:27" ht="48">
       <c r="A71" s="7"/>
       <c r="B71" s="7">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D71" s="9"/>
       <c r="E71" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F71" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="G71" s="29" t="s">
+      <c r="G71" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="H71" s="30"/>
-      <c r="I71" s="30"/>
-      <c r="J71" s="30"/>
+      <c r="H71" s="31"/>
+      <c r="I71" s="31"/>
+      <c r="J71" s="31"/>
       <c r="K71" s="1"/>
       <c r="L71" s="1"/>
       <c r="M71" s="1"/>
@@ -3804,20 +3802,24 @@
     <row r="72" spans="1:27" ht="48">
       <c r="A72" s="7"/>
       <c r="B72" s="7">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D72" s="9"/>
-      <c r="E72" s="27" t="s">
-        <v>224</v>
-      </c>
-      <c r="F72" s="13"/>
-      <c r="G72" s="13"/>
-      <c r="H72" s="13"/>
-      <c r="I72" s="13"/>
-      <c r="J72" s="13"/>
+      <c r="E72" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="F72" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="G72" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="H72" s="31"/>
+      <c r="I72" s="31"/>
+      <c r="J72" s="31"/>
       <c r="K72" s="1"/>
       <c r="L72" s="1"/>
       <c r="M72" s="1"/>
@@ -3839,14 +3841,14 @@
     <row r="73" spans="1:27" ht="48">
       <c r="A73" s="7"/>
       <c r="B73" s="7">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D73" s="9"/>
       <c r="E73" s="27" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F73" s="13"/>
       <c r="G73" s="13"/>
@@ -3874,24 +3876,20 @@
     <row r="74" spans="1:27" ht="48">
       <c r="A74" s="7"/>
       <c r="B74" s="7">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D74" s="9"/>
       <c r="E74" s="27" t="s">
-        <v>226</v>
-      </c>
-      <c r="F74" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="G74" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="H74" s="30"/>
-      <c r="I74" s="30"/>
-      <c r="J74" s="30"/>
+        <v>225</v>
+      </c>
+      <c r="F74" s="13"/>
+      <c r="G74" s="13"/>
+      <c r="H74" s="13"/>
+      <c r="I74" s="13"/>
+      <c r="J74" s="13"/>
       <c r="K74" s="1"/>
       <c r="L74" s="1"/>
       <c r="M74" s="1"/>
@@ -3913,20 +3911,24 @@
     <row r="75" spans="1:27" ht="48">
       <c r="A75" s="7"/>
       <c r="B75" s="7">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D75" s="9"/>
       <c r="E75" s="27" t="s">
-        <v>227</v>
-      </c>
-      <c r="F75" s="13"/>
-      <c r="G75" s="13"/>
-      <c r="H75" s="13"/>
-      <c r="I75" s="13"/>
-      <c r="J75" s="13"/>
+        <v>226</v>
+      </c>
+      <c r="F75" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="G75" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="H75" s="31"/>
+      <c r="I75" s="31"/>
+      <c r="J75" s="31"/>
       <c r="K75" s="1"/>
       <c r="L75" s="1"/>
       <c r="M75" s="1"/>
@@ -3948,14 +3950,14 @@
     <row r="76" spans="1:27" ht="48">
       <c r="A76" s="7"/>
       <c r="B76" s="7">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D76" s="9"/>
       <c r="E76" s="27" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F76" s="13"/>
       <c r="G76" s="13"/>
@@ -3980,17 +3982,17 @@
       <c r="Z76" s="1"/>
       <c r="AA76" s="1"/>
     </row>
-    <row r="77" spans="1:27" ht="32">
+    <row r="77" spans="1:27" ht="48">
       <c r="A77" s="7"/>
       <c r="B77" s="7">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D77" s="9"/>
       <c r="E77" s="27" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F77" s="13"/>
       <c r="G77" s="13"/>
@@ -4015,23 +4017,23 @@
       <c r="Z77" s="1"/>
       <c r="AA77" s="1"/>
     </row>
-    <row r="78" spans="1:27" ht="16">
+    <row r="78" spans="1:27" ht="32">
       <c r="A78" s="7"/>
       <c r="B78" s="7">
-        <v>76</v>
-      </c>
-      <c r="C78" s="27" t="s">
-        <v>85</v>
+        <v>75</v>
+      </c>
+      <c r="C78" s="8" t="s">
+        <v>84</v>
       </c>
       <c r="D78" s="9"/>
-      <c r="E78" s="26" t="s">
-        <v>185</v>
-      </c>
-      <c r="F78" s="9"/>
-      <c r="G78" s="9"/>
-      <c r="H78" s="9"/>
-      <c r="I78" s="9"/>
-      <c r="J78" s="9"/>
+      <c r="E78" s="27" t="s">
+        <v>229</v>
+      </c>
+      <c r="F78" s="13"/>
+      <c r="G78" s="13"/>
+      <c r="H78" s="13"/>
+      <c r="I78" s="13"/>
+      <c r="J78" s="13"/>
       <c r="K78" s="1"/>
       <c r="L78" s="1"/>
       <c r="M78" s="1"/>
@@ -4050,23 +4052,23 @@
       <c r="Z78" s="1"/>
       <c r="AA78" s="1"/>
     </row>
-    <row r="79" spans="1:27" ht="15">
+    <row r="79" spans="1:27" ht="16">
       <c r="A79" s="7"/>
       <c r="B79" s="7">
-        <v>77</v>
-      </c>
-      <c r="C79" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="D79" s="1"/>
-      <c r="E79" s="24" t="s">
-        <v>184</v>
-      </c>
-      <c r="F79" s="1"/>
-      <c r="G79" s="1"/>
-      <c r="H79" s="1"/>
-      <c r="I79" s="1"/>
-      <c r="J79" s="1"/>
+        <v>76</v>
+      </c>
+      <c r="C79" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="D79" s="9"/>
+      <c r="E79" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="F79" s="9"/>
+      <c r="G79" s="9"/>
+      <c r="H79" s="9"/>
+      <c r="I79" s="9"/>
+      <c r="J79" s="9"/>
       <c r="K79" s="1"/>
       <c r="L79" s="1"/>
       <c r="M79" s="1"/>
@@ -4088,14 +4090,14 @@
     <row r="80" spans="1:27" ht="15">
       <c r="A80" s="7"/>
       <c r="B80" s="7">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D80" s="1"/>
       <c r="E80" s="24" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F80" s="1"/>
       <c r="G80" s="1"/>
@@ -4123,14 +4125,14 @@
     <row r="81" spans="1:27" ht="15">
       <c r="A81" s="7"/>
       <c r="B81" s="7">
-        <v>79</v>
-      </c>
-      <c r="C81" s="17" t="s">
-        <v>88</v>
+        <v>78</v>
+      </c>
+      <c r="C81" s="16" t="s">
+        <v>87</v>
       </c>
       <c r="D81" s="1"/>
       <c r="E81" s="24" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F81" s="1"/>
       <c r="G81" s="1"/>
@@ -4158,14 +4160,14 @@
     <row r="82" spans="1:27" ht="15">
       <c r="A82" s="7"/>
       <c r="B82" s="7">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C82" s="17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D82" s="1"/>
       <c r="E82" s="24" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F82" s="1"/>
       <c r="G82" s="1"/>
@@ -4193,14 +4195,14 @@
     <row r="83" spans="1:27" ht="15">
       <c r="A83" s="7"/>
       <c r="B83" s="7">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C83" s="17" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D83" s="1"/>
       <c r="E83" s="24" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F83" s="1"/>
       <c r="G83" s="1"/>
@@ -4228,14 +4230,14 @@
     <row r="84" spans="1:27" ht="15">
       <c r="A84" s="7"/>
       <c r="B84" s="7">
-        <v>82</v>
-      </c>
-      <c r="C84" s="16" t="s">
-        <v>91</v>
+        <v>81</v>
+      </c>
+      <c r="C84" s="17" t="s">
+        <v>90</v>
       </c>
       <c r="D84" s="1"/>
       <c r="E84" s="24" t="s">
-        <v>230</v>
+        <v>180</v>
       </c>
       <c r="F84" s="1"/>
       <c r="G84" s="1"/>
@@ -4263,14 +4265,14 @@
     <row r="85" spans="1:27" ht="15">
       <c r="A85" s="7"/>
       <c r="B85" s="7">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D85" s="1"/>
       <c r="E85" s="24" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F85" s="1"/>
       <c r="G85" s="1"/>
@@ -4298,14 +4300,14 @@
     <row r="86" spans="1:27" ht="15">
       <c r="A86" s="7"/>
       <c r="B86" s="7">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D86" s="1"/>
       <c r="E86" s="24" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F86" s="1"/>
       <c r="G86" s="1"/>
@@ -4333,14 +4335,14 @@
     <row r="87" spans="1:27" ht="15">
       <c r="A87" s="7"/>
       <c r="B87" s="7">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D87" s="1"/>
       <c r="E87" s="24" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F87" s="1"/>
       <c r="G87" s="1"/>
@@ -4368,14 +4370,14 @@
     <row r="88" spans="1:27" ht="15">
       <c r="A88" s="7"/>
       <c r="B88" s="7">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D88" s="1"/>
       <c r="E88" s="24" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F88" s="1"/>
       <c r="G88" s="1"/>
@@ -4403,14 +4405,14 @@
     <row r="89" spans="1:27" ht="15">
       <c r="A89" s="7"/>
       <c r="B89" s="7">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D89" s="1"/>
       <c r="E89" s="24" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F89" s="1"/>
       <c r="G89" s="1"/>
@@ -4438,14 +4440,14 @@
     <row r="90" spans="1:27" ht="15">
       <c r="A90" s="7"/>
       <c r="B90" s="7">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D90" s="1"/>
       <c r="E90" s="24" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F90" s="1"/>
       <c r="G90" s="1"/>
@@ -4473,14 +4475,14 @@
     <row r="91" spans="1:27" ht="15">
       <c r="A91" s="7"/>
       <c r="B91" s="7">
-        <v>89</v>
-      </c>
-      <c r="C91" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="D91" s="18"/>
+        <v>88</v>
+      </c>
+      <c r="C91" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D91" s="1"/>
       <c r="E91" s="24" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F91" s="1"/>
       <c r="G91" s="1"/>
@@ -4505,19 +4507,17 @@
       <c r="Z91" s="1"/>
       <c r="AA91" s="1"/>
     </row>
-    <row r="92" spans="1:27" ht="56">
+    <row r="92" spans="1:27" ht="15">
       <c r="A92" s="7"/>
       <c r="B92" s="7">
-        <v>90</v>
-      </c>
-      <c r="C92" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="D92" s="18" t="s">
-        <v>100</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="C92" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="D92" s="18"/>
       <c r="E92" s="24" t="s">
-        <v>179</v>
+        <v>237</v>
       </c>
       <c r="F92" s="1"/>
       <c r="G92" s="1"/>
@@ -4545,16 +4545,16 @@
     <row r="93" spans="1:27" ht="56">
       <c r="A93" s="7"/>
       <c r="B93" s="7">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C93" s="19" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D93" s="18" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E93" s="24" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F93" s="1"/>
       <c r="G93" s="1"/>
@@ -4582,16 +4582,16 @@
     <row r="94" spans="1:27" ht="56">
       <c r="A94" s="7"/>
       <c r="B94" s="7">
-        <v>92</v>
-      </c>
-      <c r="C94" s="20" t="s">
-        <v>103</v>
+        <v>91</v>
+      </c>
+      <c r="C94" s="19" t="s">
+        <v>101</v>
       </c>
       <c r="D94" s="18" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E94" s="24" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F94" s="1"/>
       <c r="G94" s="1"/>
@@ -4619,16 +4619,16 @@
     <row r="95" spans="1:27" ht="56">
       <c r="A95" s="7"/>
       <c r="B95" s="7">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C95" s="20" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D95" s="18" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E95" s="24" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F95" s="1"/>
       <c r="G95" s="1"/>
@@ -4656,16 +4656,16 @@
     <row r="96" spans="1:27" ht="56">
       <c r="A96" s="7"/>
       <c r="B96" s="7">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C96" s="20" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D96" s="18" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E96" s="24" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F96" s="1"/>
       <c r="G96" s="1"/>
@@ -4690,17 +4690,19 @@
       <c r="Z96" s="1"/>
       <c r="AA96" s="1"/>
     </row>
-    <row r="97" spans="1:27" ht="15">
+    <row r="97" spans="1:27" ht="56">
       <c r="A97" s="7"/>
       <c r="B97" s="7">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C97" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="D97" s="1"/>
+        <v>106</v>
+      </c>
+      <c r="D97" s="18" t="s">
+        <v>104</v>
+      </c>
       <c r="E97" s="24" t="s">
-        <v>238</v>
+        <v>175</v>
       </c>
       <c r="F97" s="1"/>
       <c r="G97" s="1"/>
@@ -4728,14 +4730,14 @@
     <row r="98" spans="1:27" ht="15">
       <c r="A98" s="7"/>
       <c r="B98" s="7">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C98" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D98" s="1"/>
       <c r="E98" s="24" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F98" s="1"/>
       <c r="G98" s="1"/>
@@ -4763,14 +4765,14 @@
     <row r="99" spans="1:27" ht="15">
       <c r="A99" s="7"/>
       <c r="B99" s="7">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C99" s="20" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D99" s="1"/>
       <c r="E99" s="24" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F99" s="1"/>
       <c r="G99" s="1"/>
@@ -4798,14 +4800,14 @@
     <row r="100" spans="1:27" ht="15">
       <c r="A100" s="7"/>
       <c r="B100" s="7">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C100" s="20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D100" s="1"/>
       <c r="E100" s="24" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F100" s="1"/>
       <c r="G100" s="1"/>
@@ -4833,14 +4835,14 @@
     <row r="101" spans="1:27" ht="15">
       <c r="A101" s="7"/>
       <c r="B101" s="7">
-        <v>99</v>
-      </c>
-      <c r="C101" s="19" t="s">
-        <v>111</v>
+        <v>98</v>
+      </c>
+      <c r="C101" s="20" t="s">
+        <v>110</v>
       </c>
       <c r="D101" s="1"/>
       <c r="E101" s="24" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F101" s="1"/>
       <c r="G101" s="1"/>
@@ -4868,14 +4870,14 @@
     <row r="102" spans="1:27" ht="15">
       <c r="A102" s="7"/>
       <c r="B102" s="7">
-        <v>100</v>
-      </c>
-      <c r="C102" s="20" t="s">
-        <v>112</v>
+        <v>99</v>
+      </c>
+      <c r="C102" s="19" t="s">
+        <v>111</v>
       </c>
       <c r="D102" s="1"/>
       <c r="E102" s="24" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F102" s="1"/>
       <c r="G102" s="1"/>
@@ -4903,14 +4905,14 @@
     <row r="103" spans="1:27" ht="15">
       <c r="A103" s="7"/>
       <c r="B103" s="7">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C103" s="20" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D103" s="1"/>
       <c r="E103" s="24" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F103" s="1"/>
       <c r="G103" s="1"/>
@@ -4938,14 +4940,14 @@
     <row r="104" spans="1:27" ht="15">
       <c r="A104" s="7"/>
       <c r="B104" s="7">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C104" s="20" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D104" s="1"/>
       <c r="E104" s="24" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F104" s="1"/>
       <c r="G104" s="1"/>
@@ -4973,14 +4975,14 @@
     <row r="105" spans="1:27" ht="15">
       <c r="A105" s="7"/>
       <c r="B105" s="7">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C105" s="20" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D105" s="1"/>
       <c r="E105" s="24" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F105" s="1"/>
       <c r="G105" s="1"/>
@@ -5008,14 +5010,14 @@
     <row r="106" spans="1:27" ht="15">
       <c r="A106" s="7"/>
       <c r="B106" s="7">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C106" s="20" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D106" s="1"/>
       <c r="E106" s="24" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F106" s="1"/>
       <c r="G106" s="1"/>
@@ -5043,14 +5045,14 @@
     <row r="107" spans="1:27" ht="15">
       <c r="A107" s="7"/>
       <c r="B107" s="7">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C107" s="20" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D107" s="1"/>
       <c r="E107" s="24" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F107" s="1"/>
       <c r="G107" s="1"/>
@@ -5078,14 +5080,14 @@
     <row r="108" spans="1:27" ht="15">
       <c r="A108" s="7"/>
       <c r="B108" s="7">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C108" s="20" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D108" s="1"/>
       <c r="E108" s="24" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F108" s="1"/>
       <c r="G108" s="1"/>
@@ -5113,14 +5115,14 @@
     <row r="109" spans="1:27" ht="15">
       <c r="A109" s="7"/>
       <c r="B109" s="7">
-        <v>107</v>
-      </c>
-      <c r="C109" s="19" t="s">
-        <v>119</v>
+        <v>106</v>
+      </c>
+      <c r="C109" s="20" t="s">
+        <v>118</v>
       </c>
       <c r="D109" s="1"/>
       <c r="E109" s="24" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F109" s="1"/>
       <c r="G109" s="1"/>
@@ -5148,14 +5150,14 @@
     <row r="110" spans="1:27" ht="15">
       <c r="A110" s="7"/>
       <c r="B110" s="7">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C110" s="19" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D110" s="1"/>
       <c r="E110" s="24" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F110" s="1"/>
       <c r="G110" s="1"/>
@@ -5183,14 +5185,14 @@
     <row r="111" spans="1:27" ht="15">
       <c r="A111" s="7"/>
       <c r="B111" s="7">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C111" s="19" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D111" s="1"/>
       <c r="E111" s="24" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F111" s="1"/>
       <c r="G111" s="1"/>
@@ -5218,14 +5220,14 @@
     <row r="112" spans="1:27" ht="15">
       <c r="A112" s="7"/>
       <c r="B112" s="7">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C112" s="19" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D112" s="1"/>
       <c r="E112" s="24" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F112" s="1"/>
       <c r="G112" s="1"/>
@@ -5253,14 +5255,14 @@
     <row r="113" spans="1:27" ht="15">
       <c r="A113" s="7"/>
       <c r="B113" s="7">
-        <v>111</v>
-      </c>
-      <c r="C113" s="21" t="s">
-        <v>123</v>
+        <v>110</v>
+      </c>
+      <c r="C113" s="19" t="s">
+        <v>122</v>
       </c>
       <c r="D113" s="1"/>
       <c r="E113" s="24" t="s">
-        <v>174</v>
+        <v>253</v>
       </c>
       <c r="F113" s="1"/>
       <c r="G113" s="1"/>
@@ -5288,14 +5290,14 @@
     <row r="114" spans="1:27" ht="15">
       <c r="A114" s="7"/>
       <c r="B114" s="7">
-        <v>112</v>
-      </c>
-      <c r="C114" s="20" t="s">
-        <v>124</v>
+        <v>111</v>
+      </c>
+      <c r="C114" s="21" t="s">
+        <v>123</v>
       </c>
       <c r="D114" s="1"/>
       <c r="E114" s="24" t="s">
-        <v>254</v>
+        <v>174</v>
       </c>
       <c r="F114" s="1"/>
       <c r="G114" s="1"/>
@@ -5323,14 +5325,14 @@
     <row r="115" spans="1:27" ht="15">
       <c r="A115" s="7"/>
       <c r="B115" s="7">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C115" s="20" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D115" s="1"/>
       <c r="E115" s="24" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F115" s="1"/>
       <c r="G115" s="1"/>
@@ -5358,14 +5360,14 @@
     <row r="116" spans="1:27" ht="15">
       <c r="A116" s="7"/>
       <c r="B116" s="7">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C116" s="20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D116" s="1"/>
       <c r="E116" s="24" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F116" s="1"/>
       <c r="G116" s="1"/>
@@ -5393,14 +5395,14 @@
     <row r="117" spans="1:27" ht="15">
       <c r="A117" s="7"/>
       <c r="B117" s="7">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C117" s="20" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D117" s="1"/>
       <c r="E117" s="24" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F117" s="1"/>
       <c r="G117" s="1"/>
@@ -5428,14 +5430,14 @@
     <row r="118" spans="1:27" ht="15">
       <c r="A118" s="7"/>
       <c r="B118" s="7">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C118" s="20" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D118" s="1"/>
       <c r="E118" s="24" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F118" s="1"/>
       <c r="G118" s="1"/>
@@ -5463,14 +5465,14 @@
     <row r="119" spans="1:27" ht="15">
       <c r="A119" s="7"/>
       <c r="B119" s="7">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C119" s="20" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D119" s="1"/>
       <c r="E119" s="24" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F119" s="1"/>
       <c r="G119" s="1"/>
@@ -5498,14 +5500,14 @@
     <row r="120" spans="1:27" ht="15">
       <c r="A120" s="7"/>
       <c r="B120" s="7">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C120" s="20" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D120" s="1"/>
       <c r="E120" s="24" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F120" s="1"/>
       <c r="G120" s="1"/>
@@ -5533,14 +5535,14 @@
     <row r="121" spans="1:27" ht="15">
       <c r="A121" s="7"/>
       <c r="B121" s="7">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C121" s="20" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D121" s="1"/>
       <c r="E121" s="24" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F121" s="1"/>
       <c r="G121" s="1"/>
@@ -5568,14 +5570,14 @@
     <row r="122" spans="1:27" ht="15">
       <c r="A122" s="7"/>
       <c r="B122" s="7">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C122" s="20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D122" s="1"/>
       <c r="E122" s="24" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F122" s="1"/>
       <c r="G122" s="1"/>
@@ -5603,14 +5605,14 @@
     <row r="123" spans="1:27" ht="15">
       <c r="A123" s="7"/>
       <c r="B123" s="7">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C123" s="20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D123" s="1"/>
       <c r="E123" s="24" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F123" s="1"/>
       <c r="G123" s="1"/>
@@ -5638,14 +5640,14 @@
     <row r="124" spans="1:27" ht="15">
       <c r="A124" s="7"/>
       <c r="B124" s="7">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C124" s="20" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D124" s="1"/>
       <c r="E124" s="24" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F124" s="1"/>
       <c r="G124" s="1"/>
@@ -5673,14 +5675,14 @@
     <row r="125" spans="1:27" ht="15">
       <c r="A125" s="7"/>
       <c r="B125" s="7">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C125" s="20" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D125" s="1"/>
       <c r="E125" s="24" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F125" s="1"/>
       <c r="G125" s="1"/>
@@ -5708,14 +5710,14 @@
     <row r="126" spans="1:27" ht="15">
       <c r="A126" s="7"/>
       <c r="B126" s="7">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C126" s="20" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D126" s="1"/>
       <c r="E126" s="24" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F126" s="1"/>
       <c r="G126" s="1"/>
@@ -5743,14 +5745,14 @@
     <row r="127" spans="1:27" ht="15">
       <c r="A127" s="7"/>
       <c r="B127" s="7">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C127" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D127" s="1"/>
       <c r="E127" s="24" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F127" s="1"/>
       <c r="G127" s="1"/>
@@ -5778,14 +5780,14 @@
     <row r="128" spans="1:27" ht="15">
       <c r="A128" s="7"/>
       <c r="B128" s="7">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C128" s="20" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D128" s="1"/>
       <c r="E128" s="24" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F128" s="1"/>
       <c r="G128" s="1"/>
@@ -5810,17 +5812,17 @@
       <c r="Z128" s="1"/>
       <c r="AA128" s="1"/>
     </row>
-    <row r="129" spans="1:27" ht="28">
+    <row r="129" spans="1:27" ht="15">
       <c r="A129" s="7"/>
       <c r="B129" s="7">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C129" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D129" s="1"/>
-      <c r="E129" s="25" t="s">
-        <v>269</v>
+      <c r="E129" s="24" t="s">
+        <v>268</v>
       </c>
       <c r="F129" s="1"/>
       <c r="G129" s="1"/>
@@ -5845,17 +5847,17 @@
       <c r="Z129" s="1"/>
       <c r="AA129" s="1"/>
     </row>
-    <row r="130" spans="1:27" ht="15">
+    <row r="130" spans="1:27" ht="28">
       <c r="A130" s="7"/>
       <c r="B130" s="7">
-        <v>128</v>
-      </c>
-      <c r="C130" s="22" t="s">
-        <v>140</v>
+        <v>127</v>
+      </c>
+      <c r="C130" s="20" t="s">
+        <v>139</v>
       </c>
       <c r="D130" s="1"/>
-      <c r="E130" s="23" t="s">
-        <v>173</v>
+      <c r="E130" s="25" t="s">
+        <v>269</v>
       </c>
       <c r="F130" s="1"/>
       <c r="G130" s="1"/>
@@ -5883,14 +5885,14 @@
     <row r="131" spans="1:27" ht="15">
       <c r="A131" s="7"/>
       <c r="B131" s="7">
-        <v>129</v>
-      </c>
-      <c r="C131" s="20" t="s">
-        <v>141</v>
+        <v>128</v>
+      </c>
+      <c r="C131" s="22" t="s">
+        <v>140</v>
       </c>
       <c r="D131" s="1"/>
       <c r="E131" s="23" t="s">
-        <v>193</v>
+        <v>173</v>
       </c>
       <c r="F131" s="1"/>
       <c r="G131" s="1"/>
@@ -5915,12 +5917,18 @@
       <c r="Z131" s="1"/>
       <c r="AA131" s="1"/>
     </row>
-    <row r="132" spans="1:27" ht="13">
-      <c r="A132" s="1"/>
-      <c r="B132" s="1"/>
-      <c r="C132" s="2"/>
+    <row r="132" spans="1:27" ht="15">
+      <c r="A132" s="7"/>
+      <c r="B132" s="7">
+        <v>129</v>
+      </c>
+      <c r="C132" s="20" t="s">
+        <v>141</v>
+      </c>
       <c r="D132" s="1"/>
-      <c r="E132" s="1"/>
+      <c r="E132" s="23" t="s">
+        <v>193</v>
+      </c>
       <c r="F132" s="1"/>
       <c r="G132" s="1"/>
       <c r="H132" s="1"/>
@@ -30768,19 +30776,48 @@
       <c r="Z988" s="1"/>
       <c r="AA988" s="1"/>
     </row>
+    <row r="989" spans="1:27" ht="13">
+      <c r="A989" s="1"/>
+      <c r="B989" s="1"/>
+      <c r="C989" s="2"/>
+      <c r="D989" s="1"/>
+      <c r="E989" s="1"/>
+      <c r="F989" s="1"/>
+      <c r="G989" s="1"/>
+      <c r="H989" s="1"/>
+      <c r="I989" s="1"/>
+      <c r="J989" s="1"/>
+      <c r="K989" s="1"/>
+      <c r="L989" s="1"/>
+      <c r="M989" s="1"/>
+      <c r="N989" s="1"/>
+      <c r="O989" s="1"/>
+      <c r="P989" s="1"/>
+      <c r="Q989" s="1"/>
+      <c r="R989" s="1"/>
+      <c r="S989" s="1"/>
+      <c r="T989" s="1"/>
+      <c r="U989" s="1"/>
+      <c r="V989" s="1"/>
+      <c r="W989" s="1"/>
+      <c r="X989" s="1"/>
+      <c r="Y989" s="1"/>
+      <c r="Z989" s="1"/>
+      <c r="AA989" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="G70:J70"/>
-    <mergeCell ref="G71:J71"/>
-    <mergeCell ref="G74:J74"/>
-    <mergeCell ref="G64:J64"/>
-    <mergeCell ref="G65:J65"/>
-    <mergeCell ref="G66:J66"/>
     <mergeCell ref="G45:J45"/>
     <mergeCell ref="G49:J49"/>
     <mergeCell ref="G53:J53"/>
     <mergeCell ref="G57:J57"/>
     <mergeCell ref="G63:J63"/>
+    <mergeCell ref="G71:J71"/>
+    <mergeCell ref="G72:J72"/>
+    <mergeCell ref="G75:J75"/>
+    <mergeCell ref="G64:J64"/>
+    <mergeCell ref="G65:J65"/>
+    <mergeCell ref="G66:J66"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
